--- a/blurBmpFile/ПП_2020_ПС-32-Эргашев.xlsx
+++ b/blurBmpFile/ПП_2020_ПС-32-Эргашев.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msi gf\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA49A11F-F48A-405E-BCC3-A9AC382419A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041476F0-C328-47C2-B1C2-1BE8E45FC663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,38 +60,16 @@
     <t xml:space="preserve">                          Четырехпроцессорная система</t>
   </si>
   <si>
-    <t>Вывод:  При 3 потоках наблюдается рост ускорения затем происходит плавное  рост  и снижения ускорения</t>
+    <t xml:space="preserve">Вывод: Выполнения программы почти не зависит от количество потоказ при однопроцессорной системе. Оно выполняется почереди следовательно выгрыша по времени нету. </t>
   </si>
   <si>
-    <t>Вывод:  При 2 потоках наблюдается рост ускорения затем происходит плавное  рост  и снижения ускорения</t>
+    <t>Вывод: В двух процессорной системе можно увидеть незначительное ускорения</t>
   </si>
   <si>
-    <t>Вывод:  При 3 потоках наблюдается рост ускорения затем происходит плавное  снижения и рост   ускорения.</t>
+    <t>Вывод:  При 3 потоках наблюдается рост ускорения.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Вывод:  При 4 потоках </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>наблюдается</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> рост ускорения затем происходит плавное снижения и рост ускорения </t>
-    </r>
+    <t xml:space="preserve">Вывод:  Вывод:  При 3 потоках наблюдается  заметное ускорение. </t>
   </si>
 </sst>
 </file>
@@ -199,18 +177,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -335,49 +313,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2587499999999998</c:v>
+                  <c:v>1.0011025358324146</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4263456090651558</c:v>
+                  <c:v>1.0055370985603544</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5234493192133129</c:v>
+                  <c:v>1.0033149171270719</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6644628099173553</c:v>
+                  <c:v>1.0055370985603544</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6481178396072012</c:v>
+                  <c:v>0.99234972677595623</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6481178396072012</c:v>
+                  <c:v>0.91902834008097167</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7096774193548385</c:v>
+                  <c:v>0.93128205128205133</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7760141093474426</c:v>
+                  <c:v>0.93511843460350164</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.754355400696864</c:v>
+                  <c:v>0.95578947368421063</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7010135135135134</c:v>
+                  <c:v>0.93608247422680413</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.7422145328719723</c:v>
+                  <c:v>1.0133928571428572</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.7452339688041594</c:v>
+                  <c:v>0.98803046789989113</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.8613678373382621</c:v>
+                  <c:v>0.97112299465240637</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7635726795096323</c:v>
+                  <c:v>0.96905016008537881</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.7854609929078014</c:v>
+                  <c:v>1.2421340629274966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -776,52 +754,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.86699999999999999</c:v>
+                  <c:v>0.97199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65700000000000003</c:v>
+                  <c:v>0.83599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58599999999999997</c:v>
+                  <c:v>0.76200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55600000000000005</c:v>
+                  <c:v>0.78800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.57899999999999996</c:v>
+                  <c:v>0.72599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00">
-                  <c:v>0.56699999999999995</c:v>
+                  <c:v>0.755</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51200000000000001</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.51800000000000002</c:v>
+                  <c:v>0.70399999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.496</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.495</c:v>
+                  <c:v>0.74199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.501</c:v>
+                  <c:v>0.57099999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.48699999999999999</c:v>
+                  <c:v>0.73399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.47799999999999998</c:v>
+                  <c:v>0.747</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.49099999999999999</c:v>
+                  <c:v>0.76300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.47899999999999998</c:v>
+                  <c:v>0.84399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.51900000000000002</c:v>
+                  <c:v>0.79100000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1223,49 +1201,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3196347031963469</c:v>
+                  <c:v>1.1626794258373205</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4795221843003414</c:v>
+                  <c:v>1.2755905511811023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5593525179856114</c:v>
+                  <c:v>1.2335025380710658</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4974093264248705</c:v>
+                  <c:v>1.3388429752066116</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5291005291005293</c:v>
+                  <c:v>1.2874172185430464</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.693359375</c:v>
+                  <c:v>1.3885714285714286</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6737451737451736</c:v>
+                  <c:v>1.3806818181818181</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.747983870967742</c:v>
+                  <c:v>1.3315068493150686</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7515151515151515</c:v>
+                  <c:v>1.3099730458221024</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7305389221556886</c:v>
+                  <c:v>1.7022767075306482</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.7802874743326489</c:v>
+                  <c:v>1.3242506811989101</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.8138075313807531</c:v>
+                  <c:v>1.3012048192771084</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7657841140529531</c:v>
+                  <c:v>1.2739187418086499</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8100208768267223</c:v>
+                  <c:v>1.1516587677725119</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6705202312138727</c:v>
+                  <c:v>1.2288242730720607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1672,49 +1650,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65981735159817345</c:v>
+                  <c:v>0.58133971291866027</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.49317406143344716</c:v>
+                  <c:v>0.42519685039370075</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.38983812949640284</c:v>
+                  <c:v>0.30837563451776645</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29948186528497411</c:v>
+                  <c:v>0.26776859504132233</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25485008818342153</c:v>
+                  <c:v>0.21456953642384105</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24190848214285715</c:v>
+                  <c:v>0.1983673469387755</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2092181467181467</c:v>
+                  <c:v>0.17258522727272727</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19422043010752688</c:v>
+                  <c:v>0.14794520547945206</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.17515151515151514</c:v>
+                  <c:v>0.13099730458221023</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.15732172019597168</c:v>
+                  <c:v>0.15475242795733166</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.14835728952772073</c:v>
+                  <c:v>0.11035422343324251</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.13952365626005794</c:v>
+                  <c:v>0.10009267840593142</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.12612743671806809</c:v>
+                  <c:v>9.0994195843474998E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.12066805845511482</c:v>
+                  <c:v>7.6777251184834125E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.10440751445086704</c:v>
+                  <c:v>7.6801517067003791E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2121,49 +2099,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62937499999999991</c:v>
+                  <c:v>0.5005512679162073</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47544853635505196</c:v>
+                  <c:v>0.33517903285345146</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.38086232980332824</c:v>
+                  <c:v>0.25082872928176797</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33289256198347106</c:v>
+                  <c:v>0.20110741971207088</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27468630660120019</c:v>
+                  <c:v>0.16539162112932604</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2354454056581716</c:v>
+                  <c:v>0.13128976286871025</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21370967741935482</c:v>
+                  <c:v>0.11641025641025642</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19733490103860474</c:v>
+                  <c:v>0.10390204828927796</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1754355400696864</c:v>
+                  <c:v>9.5578947368421069E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.15463759213759212</c:v>
+                  <c:v>8.5098406747891278E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.14518454440599768</c:v>
+                  <c:v>8.4449404761904767E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.13424876683108919</c:v>
+                  <c:v>7.600234368460701E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.13295484552416156</c:v>
+                  <c:v>6.9365928189457596E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.11757151196730882</c:v>
+                  <c:v>6.4603344005691926E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.11159131205673758</c:v>
+                  <c:v>7.7633378932968539E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2557,52 +2535,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1.0069999999999999</c:v>
+                  <c:v>0.90800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8</c:v>
+                  <c:v>0.90700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.70599999999999996</c:v>
+                  <c:v>0.90300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66100000000000003</c:v>
+                  <c:v>0.90500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60499999999999998</c:v>
+                  <c:v>0.90300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00">
-                  <c:v>0.61099999999999999</c:v>
+                  <c:v>0.91500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61099999999999999</c:v>
+                  <c:v>0.98799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.58899999999999997</c:v>
+                  <c:v>0.97499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.56699999999999995</c:v>
+                  <c:v>0.97099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.57399999999999995</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.59199999999999997</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.57799999999999996</c:v>
+                  <c:v>0.89600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.57699999999999996</c:v>
+                  <c:v>0.91900000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.54100000000000004</c:v>
+                  <c:v>0.93500000000000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.57099999999999995</c:v>
+                  <c:v>0.93700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.56399999999999995</c:v>
+                  <c:v>0.73099999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3009,52 +2987,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.95299999999999996</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66900000000000004</c:v>
+                  <c:v>0.94699999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60499999999999998</c:v>
+                  <c:v>0.74299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58799999999999997</c:v>
+                  <c:v>0.91600000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.57399999999999995</c:v>
+                  <c:v>0.95599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00">
-                  <c:v>0.54300000000000004</c:v>
+                  <c:v>0.92800000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.54</c:v>
+                  <c:v>0.93799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.51700000000000002</c:v>
+                  <c:v>0.94399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.56899999999999995</c:v>
+                  <c:v>0.73599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.53800000000000003</c:v>
+                  <c:v>0.91400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.53400000000000003</c:v>
+                  <c:v>0.93799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.53300000000000003</c:v>
+                  <c:v>0.93700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.498</c:v>
+                  <c:v>0.93500000000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.53700000000000003</c:v>
+                  <c:v>0.95899999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.51100000000000001</c:v>
+                  <c:v>0.93799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.52600000000000002</c:v>
+                  <c:v>0.92500000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3469,49 +3447,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4245142002989535</c:v>
+                  <c:v>1.0137275607180571</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5752066115702479</c:v>
+                  <c:v>1.2920592193808882</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.620748299319728</c:v>
+                  <c:v>1.0480349344978166</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6602787456445993</c:v>
+                  <c:v>1.00418410041841</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7550644567219151</c:v>
+                  <c:v>1.0344827586206895</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7648148148148146</c:v>
+                  <c:v>1.023454157782516</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8433268858800773</c:v>
+                  <c:v>1.0169491525423728</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6748681898066784</c:v>
+                  <c:v>1.3043478260869565</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7713754646840147</c:v>
+                  <c:v>1.0503282275711159</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7846441947565541</c:v>
+                  <c:v>1.023454157782516</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.7879924953095683</c:v>
+                  <c:v>1.0245464247598719</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.9136546184738954</c:v>
+                  <c:v>1.0267379679144384</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7746741154562382</c:v>
+                  <c:v>1.0010427528675705</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8649706457925634</c:v>
+                  <c:v>1.023454157782516</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8117870722433458</c:v>
+                  <c:v>1.0378378378378377</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3935,49 +3913,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.71225710014947674</c:v>
+                  <c:v>0.50686378035902857</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.525068870523416</c:v>
+                  <c:v>0.43068640646029605</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40518707482993199</c:v>
+                  <c:v>0.26200873362445415</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33205574912891989</c:v>
+                  <c:v>0.20083682008368201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29251074278698586</c:v>
+                  <c:v>0.17241379310344826</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25211640211640207</c:v>
+                  <c:v>0.14620773682607371</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23041586073500966</c:v>
+                  <c:v>0.1271186440677966</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.18609646553407538</c:v>
+                  <c:v>0.14492753623188406</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17713754646840146</c:v>
+                  <c:v>0.10503282275711159</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.16224038134150492</c:v>
+                  <c:v>9.3041287071137818E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.14899937460913068</c:v>
+                  <c:v>8.537886872998933E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.14720420142106888</c:v>
+                  <c:v>7.8979843685726026E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.12676243681830274</c:v>
+                  <c:v>7.1503053776255029E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.12433137638617089</c:v>
+                  <c:v>6.8230277185501065E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.11323669201520911</c:v>
+                  <c:v>6.4864864864864855E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4456,52 +4434,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.89300000000000002</c:v>
+                  <c:v>0.95399999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65700000000000003</c:v>
+                  <c:v>0.79300000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6</c:v>
+                  <c:v>0.77300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55300000000000005</c:v>
+                  <c:v>0.82699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53400000000000003</c:v>
+                  <c:v>0.80600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00">
-                  <c:v>0.52500000000000002</c:v>
+                  <c:v>0.80300000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51200000000000001</c:v>
+                  <c:v>0.76800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.505</c:v>
+                  <c:v>0.74099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.502</c:v>
+                  <c:v>0.75800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.50600000000000001</c:v>
+                  <c:v>0.71299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.49399999999999999</c:v>
+                  <c:v>0.75700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.48899999999999999</c:v>
+                  <c:v>0.75800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.51500000000000001</c:v>
+                  <c:v>0.73899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.48699999999999999</c:v>
+                  <c:v>0.72899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.48499999999999999</c:v>
+                  <c:v>0.75600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.47799999999999998</c:v>
+                  <c:v>0.71699999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4914,49 +4892,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3592085235920852</c:v>
+                  <c:v>1.2030264817150063</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4883333333333335</c:v>
+                  <c:v>1.2341526520051747</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6148282097649185</c:v>
+                  <c:v>1.1535671100362757</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6722846441947565</c:v>
+                  <c:v>1.1836228287841191</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.700952380952381</c:v>
+                  <c:v>1.1880448318804482</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.744140625</c:v>
+                  <c:v>1.2421875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7683168316831683</c:v>
+                  <c:v>1.2874493927125505</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7788844621513944</c:v>
+                  <c:v>1.2585751978891819</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7648221343873518</c:v>
+                  <c:v>1.3380084151472651</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.8076923076923077</c:v>
+                  <c:v>1.260237780713342</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.8261758691206544</c:v>
+                  <c:v>1.2585751978891819</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.7339805825242718</c:v>
+                  <c:v>1.2909336941813261</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.8336755646817249</c:v>
+                  <c:v>1.308641975308642</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.841237113402062</c:v>
+                  <c:v>1.2619047619047619</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8682008368200838</c:v>
+                  <c:v>1.3305439330543933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5363,49 +5341,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.67960426179604261</c:v>
+                  <c:v>0.60151324085750313</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.49611111111111117</c:v>
+                  <c:v>0.4113842173350582</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.40370705244122962</c:v>
+                  <c:v>0.28839177750906891</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33445692883895128</c:v>
+                  <c:v>0.23672456575682382</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28349206349206352</c:v>
+                  <c:v>0.19800747198007471</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24916294642857142</c:v>
+                  <c:v>0.17745535714285715</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22103960396039604</c:v>
+                  <c:v>0.16093117408906882</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19765382912793272</c:v>
+                  <c:v>0.13984168865435354</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.17648221343873519</c:v>
+                  <c:v>0.13380084151472652</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.16433566433566435</c:v>
+                  <c:v>0.11456707097394019</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.15218132242672119</c:v>
+                  <c:v>0.10488126649076517</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.13338312173263628</c:v>
+                  <c:v>9.9302591860102013E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.13097682604869462</c:v>
+                  <c:v>9.347442680776015E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1227491408934708</c:v>
+                  <c:v>8.412698412698412E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.11676255230125523</c:v>
+                  <c:v>8.3158995815899583E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13084,8 +13062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="B125" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P122" sqref="P122:W129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13099,18 +13077,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -13136,12 +13114,12 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="7">
-        <v>1.0069999999999999</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="4"/>
       <c r="F3" s="10">
-        <f>1.007/C3</f>
+        <f>0.908/C3</f>
         <v>1</v>
       </c>
       <c r="J3" s="10">
@@ -13149,18 +13127,18 @@
         <v>1</v>
       </c>
       <c r="K3" s="10"/>
-      <c r="N3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
+      <c r="N3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
@@ -13168,29 +13146,29 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="7">
-        <v>0.8</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="4"/>
       <c r="F4" s="10">
-        <f t="shared" ref="F4:F18" si="0">1.007/C4</f>
-        <v>1.2587499999999998</v>
+        <f t="shared" ref="F4:F18" si="0">0.908/C4</f>
+        <v>1.0011025358324146</v>
       </c>
       <c r="J4" s="10">
         <f t="shared" ref="J4:J18" si="1">F4/A4</f>
-        <v>0.62937499999999991</v>
+        <v>0.5005512679162073</v>
       </c>
       <c r="K4" s="10"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
@@ -13198,29 +13176,29 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="7">
-        <v>0.70599999999999996</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="4"/>
       <c r="F5" s="10">
         <f t="shared" si="0"/>
-        <v>1.4263456090651558</v>
+        <v>1.0055370985603544</v>
       </c>
       <c r="J5" s="10">
         <f t="shared" si="1"/>
-        <v>0.47544853635505196</v>
+        <v>0.33517903285345146</v>
       </c>
       <c r="K5" s="10"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
@@ -13228,17 +13206,17 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="7">
-        <v>0.66100000000000003</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="4"/>
       <c r="F6" s="10">
         <f t="shared" si="0"/>
-        <v>1.5234493192133129</v>
+        <v>1.0033149171270719</v>
       </c>
       <c r="J6" s="10">
         <f t="shared" si="1"/>
-        <v>0.38086232980332824</v>
+        <v>0.25082872928176797</v>
       </c>
       <c r="K6" s="10"/>
     </row>
@@ -13248,17 +13226,17 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="7">
-        <v>0.60499999999999998</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="4"/>
       <c r="F7" s="10">
         <f t="shared" si="0"/>
-        <v>1.6644628099173553</v>
+        <v>1.0055370985603544</v>
       </c>
       <c r="J7" s="10">
         <f t="shared" si="1"/>
-        <v>0.33289256198347106</v>
+        <v>0.20110741971207088</v>
       </c>
       <c r="K7" s="10"/>
     </row>
@@ -13268,17 +13246,17 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="9">
-        <v>0.61099999999999999</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="4"/>
       <c r="F8" s="10">
         <f t="shared" si="0"/>
-        <v>1.6481178396072012</v>
+        <v>0.99234972677595623</v>
       </c>
       <c r="J8" s="10">
         <f t="shared" si="1"/>
-        <v>0.27468630660120019</v>
+        <v>0.16539162112932604</v>
       </c>
       <c r="K8" s="10"/>
     </row>
@@ -13288,17 +13266,17 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="7">
-        <v>0.61099999999999999</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="4"/>
       <c r="F9" s="10">
         <f t="shared" si="0"/>
-        <v>1.6481178396072012</v>
+        <v>0.91902834008097167</v>
       </c>
       <c r="J9" s="10">
         <f t="shared" si="1"/>
-        <v>0.2354454056581716</v>
+        <v>0.13128976286871025</v>
       </c>
       <c r="K9" s="10"/>
     </row>
@@ -13308,17 +13286,17 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="7">
-        <v>0.58899999999999997</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="4"/>
       <c r="F10" s="10">
         <f t="shared" si="0"/>
-        <v>1.7096774193548385</v>
+        <v>0.93128205128205133</v>
       </c>
       <c r="J10" s="10">
         <f t="shared" si="1"/>
-        <v>0.21370967741935482</v>
+        <v>0.11641025641025642</v>
       </c>
       <c r="K10" s="10"/>
     </row>
@@ -13328,17 +13306,17 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="7">
-        <v>0.56699999999999995</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="4"/>
       <c r="F11" s="10">
         <f t="shared" si="0"/>
-        <v>1.7760141093474426</v>
+        <v>0.93511843460350164</v>
       </c>
       <c r="J11" s="10">
         <f t="shared" si="1"/>
-        <v>0.19733490103860474</v>
+        <v>0.10390204828927796</v>
       </c>
       <c r="K11" s="10"/>
     </row>
@@ -13348,17 +13326,17 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="7">
-        <v>0.57399999999999995</v>
+        <v>0.95</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="4"/>
       <c r="F12" s="10">
         <f t="shared" si="0"/>
-        <v>1.754355400696864</v>
+        <v>0.95578947368421063</v>
       </c>
       <c r="J12" s="10">
         <f t="shared" si="1"/>
-        <v>0.1754355400696864</v>
+        <v>9.5578947368421069E-2</v>
       </c>
       <c r="K12" s="10"/>
     </row>
@@ -13368,17 +13346,17 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="7">
-        <v>0.59199999999999997</v>
+        <v>0.97</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="4"/>
       <c r="F13" s="10">
         <f t="shared" si="0"/>
-        <v>1.7010135135135134</v>
+        <v>0.93608247422680413</v>
       </c>
       <c r="J13" s="10">
         <f t="shared" si="1"/>
-        <v>0.15463759213759212</v>
+        <v>8.5098406747891278E-2</v>
       </c>
       <c r="K13" s="10"/>
     </row>
@@ -13388,17 +13366,17 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="7">
-        <v>0.57799999999999996</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="4"/>
       <c r="F14" s="10">
         <f t="shared" si="0"/>
-        <v>1.7422145328719723</v>
+        <v>1.0133928571428572</v>
       </c>
       <c r="J14" s="10">
         <f t="shared" si="1"/>
-        <v>0.14518454440599768</v>
+        <v>8.4449404761904767E-2</v>
       </c>
       <c r="K14" s="10"/>
     </row>
@@ -13408,17 +13386,17 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="7">
-        <v>0.57699999999999996</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="4"/>
       <c r="F15" s="10">
         <f t="shared" si="0"/>
-        <v>1.7452339688041594</v>
+        <v>0.98803046789989113</v>
       </c>
       <c r="J15" s="10">
         <f t="shared" si="1"/>
-        <v>0.13424876683108919</v>
+        <v>7.600234368460701E-2</v>
       </c>
       <c r="K15" s="10"/>
     </row>
@@ -13428,17 +13406,17 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="7">
-        <v>0.54100000000000004</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="4"/>
       <c r="F16" s="10">
         <f t="shared" si="0"/>
-        <v>1.8613678373382621</v>
+        <v>0.97112299465240637</v>
       </c>
       <c r="J16" s="10">
         <f t="shared" si="1"/>
-        <v>0.13295484552416156</v>
+        <v>6.9365928189457596E-2</v>
       </c>
       <c r="K16" s="10"/>
     </row>
@@ -13448,17 +13426,17 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="7">
-        <v>0.57099999999999995</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="4"/>
       <c r="F17" s="10">
         <f t="shared" si="0"/>
-        <v>1.7635726795096323</v>
+        <v>0.96905016008537881</v>
       </c>
       <c r="J17" s="10">
         <f t="shared" si="1"/>
-        <v>0.11757151196730882</v>
+        <v>6.4603344005691926E-2</v>
       </c>
       <c r="K17" s="10"/>
     </row>
@@ -13468,17 +13446,17 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="7">
-        <v>0.56399999999999995</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="4"/>
       <c r="F18" s="10">
         <f t="shared" si="0"/>
-        <v>1.7854609929078014</v>
+        <v>1.2421340629274966</v>
       </c>
       <c r="J18" s="10">
         <f t="shared" si="1"/>
-        <v>0.11159131205673758</v>
+        <v>7.7633378932968539E-2</v>
       </c>
       <c r="K18" s="10"/>
     </row>
@@ -13574,18 +13552,18 @@
       <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:23" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
@@ -13611,12 +13589,12 @@
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="7">
-        <v>0.95299999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="4"/>
       <c r="F42" s="10">
-        <f>0.953/C42</f>
+        <f>0.96/C42</f>
         <v>1</v>
       </c>
       <c r="J42" s="10">
@@ -13631,17 +13609,17 @@
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="7">
-        <v>0.66900000000000004</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="4"/>
       <c r="F43" s="10">
-        <f t="shared" ref="F43:F57" si="2">0.953/C43</f>
-        <v>1.4245142002989535</v>
+        <f t="shared" ref="F43:F57" si="2">0.96/C43</f>
+        <v>1.0137275607180571</v>
       </c>
       <c r="J43" s="10">
         <f t="shared" ref="J43:J57" si="3">F43/A43</f>
-        <v>0.71225710014947674</v>
+        <v>0.50686378035902857</v>
       </c>
       <c r="K43" s="10"/>
     </row>
@@ -13651,17 +13629,17 @@
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="7">
-        <v>0.60499999999999998</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="4"/>
       <c r="F44" s="10">
         <f t="shared" si="2"/>
-        <v>1.5752066115702479</v>
+        <v>1.2920592193808882</v>
       </c>
       <c r="J44" s="10">
         <f t="shared" si="3"/>
-        <v>0.525068870523416</v>
+        <v>0.43068640646029605</v>
       </c>
       <c r="K44" s="10"/>
     </row>
@@ -13671,17 +13649,17 @@
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="7">
-        <v>0.58799999999999997</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="4"/>
       <c r="F45" s="10">
         <f t="shared" si="2"/>
-        <v>1.620748299319728</v>
+        <v>1.0480349344978166</v>
       </c>
       <c r="J45" s="10">
         <f t="shared" si="3"/>
-        <v>0.40518707482993199</v>
+        <v>0.26200873362445415</v>
       </c>
       <c r="K45" s="10"/>
     </row>
@@ -13691,30 +13669,30 @@
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="7">
-        <v>0.57399999999999995</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="4"/>
       <c r="F46" s="10">
         <f t="shared" si="2"/>
-        <v>1.6602787456445993</v>
+        <v>1.00418410041841</v>
       </c>
       <c r="J46" s="10">
         <f t="shared" si="3"/>
-        <v>0.33205574912891989</v>
+        <v>0.20083682008368201</v>
       </c>
       <c r="K46" s="10"/>
-      <c r="O46" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="15"/>
-      <c r="S46" s="15"/>
-      <c r="T46" s="15"/>
-      <c r="U46" s="15"/>
-      <c r="V46" s="15"/>
-      <c r="W46" s="15"/>
+      <c r="O46" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
@@ -13722,28 +13700,28 @@
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="9">
-        <v>0.54300000000000004</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="4"/>
       <c r="F47" s="10">
         <f t="shared" si="2"/>
-        <v>1.7550644567219151</v>
+        <v>1.0344827586206895</v>
       </c>
       <c r="J47" s="10">
         <f t="shared" si="3"/>
-        <v>0.29251074278698586</v>
+        <v>0.17241379310344826</v>
       </c>
       <c r="K47" s="10"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="15"/>
-      <c r="S47" s="15"/>
-      <c r="T47" s="15"/>
-      <c r="U47" s="15"/>
-      <c r="V47" s="15"/>
-      <c r="W47" s="15"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
@@ -13751,28 +13729,28 @@
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="7">
-        <v>0.54</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="4"/>
       <c r="F48" s="10">
         <f t="shared" si="2"/>
-        <v>1.7648148148148146</v>
+        <v>1.023454157782516</v>
       </c>
       <c r="J48" s="10">
         <f t="shared" si="3"/>
-        <v>0.25211640211640207</v>
+        <v>0.14620773682607371</v>
       </c>
       <c r="K48" s="10"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="15"/>
-      <c r="S48" s="15"/>
-      <c r="T48" s="15"/>
-      <c r="U48" s="15"/>
-      <c r="V48" s="15"/>
-      <c r="W48" s="15"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="12"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
@@ -13780,28 +13758,28 @@
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="7">
-        <v>0.51700000000000002</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="4"/>
       <c r="F49" s="10">
         <f t="shared" si="2"/>
-        <v>1.8433268858800773</v>
+        <v>1.0169491525423728</v>
       </c>
       <c r="J49" s="10">
         <f t="shared" si="3"/>
-        <v>0.23041586073500966</v>
+        <v>0.1271186440677966</v>
       </c>
       <c r="K49" s="10"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="15"/>
-      <c r="S49" s="15"/>
-      <c r="T49" s="15"/>
-      <c r="U49" s="15"/>
-      <c r="V49" s="15"/>
-      <c r="W49" s="15"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
@@ -13809,28 +13787,28 @@
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="7">
-        <v>0.56899999999999995</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="4"/>
       <c r="F50" s="10">
         <f t="shared" si="2"/>
-        <v>1.6748681898066784</v>
+        <v>1.3043478260869565</v>
       </c>
       <c r="J50" s="10">
         <f t="shared" si="3"/>
-        <v>0.18609646553407538</v>
+        <v>0.14492753623188406</v>
       </c>
       <c r="K50" s="10"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="15"/>
-      <c r="R50" s="15"/>
-      <c r="S50" s="15"/>
-      <c r="T50" s="15"/>
-      <c r="U50" s="15"/>
-      <c r="V50" s="15"/>
-      <c r="W50" s="15"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
@@ -13838,17 +13816,17 @@
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="7">
-        <v>0.53800000000000003</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="4"/>
       <c r="F51" s="10">
         <f t="shared" si="2"/>
-        <v>1.7713754646840147</v>
+        <v>1.0503282275711159</v>
       </c>
       <c r="J51" s="10">
         <f t="shared" si="3"/>
-        <v>0.17713754646840146</v>
+        <v>0.10503282275711159</v>
       </c>
       <c r="K51" s="10"/>
     </row>
@@ -13858,17 +13836,17 @@
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="7">
-        <v>0.53400000000000003</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="4"/>
       <c r="F52" s="10">
         <f t="shared" si="2"/>
-        <v>1.7846441947565541</v>
+        <v>1.023454157782516</v>
       </c>
       <c r="J52" s="10">
         <f t="shared" si="3"/>
-        <v>0.16224038134150492</v>
+        <v>9.3041287071137818E-2</v>
       </c>
       <c r="K52" s="10"/>
     </row>
@@ -13878,17 +13856,17 @@
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="7">
-        <v>0.53300000000000003</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="4"/>
       <c r="F53" s="10">
         <f t="shared" si="2"/>
-        <v>1.7879924953095683</v>
+        <v>1.0245464247598719</v>
       </c>
       <c r="J53" s="10">
         <f t="shared" si="3"/>
-        <v>0.14899937460913068</v>
+        <v>8.537886872998933E-2</v>
       </c>
       <c r="K53" s="10"/>
     </row>
@@ -13898,17 +13876,17 @@
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="7">
-        <v>0.498</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="4"/>
       <c r="F54" s="10">
         <f t="shared" si="2"/>
-        <v>1.9136546184738954</v>
+        <v>1.0267379679144384</v>
       </c>
       <c r="J54" s="10">
         <f t="shared" si="3"/>
-        <v>0.14720420142106888</v>
+        <v>7.8979843685726026E-2</v>
       </c>
       <c r="K54" s="10"/>
     </row>
@@ -13918,17 +13896,17 @@
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="7">
-        <v>0.53700000000000003</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="4"/>
       <c r="F55" s="10">
         <f t="shared" si="2"/>
-        <v>1.7746741154562382</v>
+        <v>1.0010427528675705</v>
       </c>
       <c r="J55" s="10">
         <f t="shared" si="3"/>
-        <v>0.12676243681830274</v>
+        <v>7.1503053776255029E-2</v>
       </c>
       <c r="K55" s="10"/>
     </row>
@@ -13938,17 +13916,17 @@
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="7">
-        <v>0.51100000000000001</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="4"/>
       <c r="F56" s="10">
         <f t="shared" si="2"/>
-        <v>1.8649706457925634</v>
+        <v>1.023454157782516</v>
       </c>
       <c r="J56" s="10">
         <f t="shared" si="3"/>
-        <v>0.12433137638617089</v>
+        <v>6.8230277185501065E-2</v>
       </c>
       <c r="K56" s="10"/>
     </row>
@@ -13958,17 +13936,17 @@
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="7">
-        <v>0.52600000000000002</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="4"/>
       <c r="F57" s="10">
         <f t="shared" si="2"/>
-        <v>1.8117870722433458</v>
+        <v>1.0378378378378377</v>
       </c>
       <c r="J57" s="10">
         <f t="shared" si="3"/>
-        <v>0.11323669201520911</v>
+        <v>6.4864864864864855E-2</v>
       </c>
       <c r="K57" s="10"/>
     </row>
@@ -14059,18 +14037,18 @@
       <c r="B77" s="1"/>
     </row>
     <row r="78" spans="1:11" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
@@ -14096,12 +14074,12 @@
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="7">
-        <v>0.89300000000000002</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="4"/>
       <c r="F80" s="10">
-        <f>0.893/C80</f>
+        <f>0.954/C80</f>
         <v>1</v>
       </c>
       <c r="J80" s="10">
@@ -14116,17 +14094,17 @@
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="7">
-        <v>0.65700000000000003</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="4"/>
       <c r="F81" s="10">
-        <f>0.893/C81</f>
-        <v>1.3592085235920852</v>
+        <f t="shared" ref="F81:F95" si="4">0.954/C81</f>
+        <v>1.2030264817150063</v>
       </c>
       <c r="J81" s="10">
-        <f t="shared" ref="J81:J95" si="4">F81/A81</f>
-        <v>0.67960426179604261</v>
+        <f t="shared" ref="J81:J95" si="5">F81/A81</f>
+        <v>0.60151324085750313</v>
       </c>
       <c r="K81" s="10"/>
     </row>
@@ -14136,17 +14114,17 @@
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="7">
-        <v>0.6</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="4"/>
       <c r="F82" s="10">
-        <f>0.893/C82</f>
-        <v>1.4883333333333335</v>
+        <f t="shared" si="4"/>
+        <v>1.2341526520051747</v>
       </c>
       <c r="J82" s="10">
-        <f t="shared" si="4"/>
-        <v>0.49611111111111117</v>
+        <f t="shared" si="5"/>
+        <v>0.4113842173350582</v>
       </c>
       <c r="K82" s="10"/>
     </row>
@@ -14156,17 +14134,17 @@
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="7">
-        <v>0.55300000000000005</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="4"/>
       <c r="F83" s="10">
-        <f t="shared" ref="F83:F95" si="5">0.893/C83</f>
-        <v>1.6148282097649185</v>
+        <f t="shared" si="4"/>
+        <v>1.1535671100362757</v>
       </c>
       <c r="J83" s="10">
-        <f t="shared" si="4"/>
-        <v>0.40370705244122962</v>
+        <f t="shared" si="5"/>
+        <v>0.28839177750906891</v>
       </c>
       <c r="K83" s="10"/>
     </row>
@@ -14176,30 +14154,30 @@
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="7">
-        <v>0.53400000000000003</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="4"/>
       <c r="F84" s="10">
+        <f t="shared" si="4"/>
+        <v>1.1836228287841191</v>
+      </c>
+      <c r="J84" s="10">
         <f t="shared" si="5"/>
-        <v>1.6722846441947565</v>
-      </c>
-      <c r="J84" s="10">
-        <f t="shared" si="4"/>
-        <v>0.33445692883895128</v>
+        <v>0.23672456575682382</v>
       </c>
       <c r="K84" s="10"/>
-      <c r="O84" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="P84" s="15"/>
-      <c r="Q84" s="15"/>
-      <c r="R84" s="15"/>
-      <c r="S84" s="15"/>
-      <c r="T84" s="15"/>
-      <c r="U84" s="15"/>
-      <c r="V84" s="15"/>
-      <c r="W84" s="15"/>
+      <c r="O84" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="P84" s="12"/>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="12"/>
+      <c r="S84" s="12"/>
+      <c r="T84" s="12"/>
+      <c r="U84" s="12"/>
+      <c r="V84" s="12"/>
+      <c r="W84" s="12"/>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
@@ -14207,28 +14185,28 @@
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="9">
-        <v>0.52500000000000002</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="4"/>
       <c r="F85" s="10">
+        <f t="shared" si="4"/>
+        <v>1.1880448318804482</v>
+      </c>
+      <c r="J85" s="10">
         <f t="shared" si="5"/>
-        <v>1.700952380952381</v>
-      </c>
-      <c r="J85" s="10">
-        <f t="shared" si="4"/>
-        <v>0.28349206349206352</v>
+        <v>0.19800747198007471</v>
       </c>
       <c r="K85" s="10"/>
-      <c r="O85" s="15"/>
-      <c r="P85" s="15"/>
-      <c r="Q85" s="15"/>
-      <c r="R85" s="15"/>
-      <c r="S85" s="15"/>
-      <c r="T85" s="15"/>
-      <c r="U85" s="15"/>
-      <c r="V85" s="15"/>
-      <c r="W85" s="15"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="12"/>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="12"/>
+      <c r="S85" s="12"/>
+      <c r="T85" s="12"/>
+      <c r="U85" s="12"/>
+      <c r="V85" s="12"/>
+      <c r="W85" s="12"/>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
@@ -14236,28 +14214,28 @@
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="7">
-        <v>0.51200000000000001</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="4"/>
       <c r="F86" s="10">
+        <f t="shared" si="4"/>
+        <v>1.2421875</v>
+      </c>
+      <c r="J86" s="10">
         <f t="shared" si="5"/>
-        <v>1.744140625</v>
-      </c>
-      <c r="J86" s="10">
-        <f t="shared" si="4"/>
-        <v>0.24916294642857142</v>
+        <v>0.17745535714285715</v>
       </c>
       <c r="K86" s="10"/>
-      <c r="O86" s="15"/>
-      <c r="P86" s="15"/>
-      <c r="Q86" s="15"/>
-      <c r="R86" s="15"/>
-      <c r="S86" s="15"/>
-      <c r="T86" s="15"/>
-      <c r="U86" s="15"/>
-      <c r="V86" s="15"/>
-      <c r="W86" s="15"/>
+      <c r="O86" s="12"/>
+      <c r="P86" s="12"/>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="12"/>
+      <c r="S86" s="12"/>
+      <c r="T86" s="12"/>
+      <c r="U86" s="12"/>
+      <c r="V86" s="12"/>
+      <c r="W86" s="12"/>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
@@ -14265,28 +14243,28 @@
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="7">
-        <v>0.505</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="4"/>
       <c r="F87" s="10">
+        <f t="shared" si="4"/>
+        <v>1.2874493927125505</v>
+      </c>
+      <c r="J87" s="10">
         <f t="shared" si="5"/>
-        <v>1.7683168316831683</v>
-      </c>
-      <c r="J87" s="10">
-        <f t="shared" si="4"/>
-        <v>0.22103960396039604</v>
+        <v>0.16093117408906882</v>
       </c>
       <c r="K87" s="10"/>
-      <c r="O87" s="15"/>
-      <c r="P87" s="15"/>
-      <c r="Q87" s="15"/>
-      <c r="R87" s="15"/>
-      <c r="S87" s="15"/>
-      <c r="T87" s="15"/>
-      <c r="U87" s="15"/>
-      <c r="V87" s="15"/>
-      <c r="W87" s="15"/>
+      <c r="O87" s="12"/>
+      <c r="P87" s="12"/>
+      <c r="Q87" s="12"/>
+      <c r="R87" s="12"/>
+      <c r="S87" s="12"/>
+      <c r="T87" s="12"/>
+      <c r="U87" s="12"/>
+      <c r="V87" s="12"/>
+      <c r="W87" s="12"/>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
@@ -14294,28 +14272,28 @@
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="7">
-        <v>0.502</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="4"/>
       <c r="F88" s="10">
+        <f t="shared" si="4"/>
+        <v>1.2585751978891819</v>
+      </c>
+      <c r="J88" s="10">
         <f t="shared" si="5"/>
-        <v>1.7788844621513944</v>
-      </c>
-      <c r="J88" s="10">
-        <f t="shared" si="4"/>
-        <v>0.19765382912793272</v>
+        <v>0.13984168865435354</v>
       </c>
       <c r="K88" s="10"/>
-      <c r="O88" s="15"/>
-      <c r="P88" s="15"/>
-      <c r="Q88" s="15"/>
-      <c r="R88" s="15"/>
-      <c r="S88" s="15"/>
-      <c r="T88" s="15"/>
-      <c r="U88" s="15"/>
-      <c r="V88" s="15"/>
-      <c r="W88" s="15"/>
+      <c r="O88" s="12"/>
+      <c r="P88" s="12"/>
+      <c r="Q88" s="12"/>
+      <c r="R88" s="12"/>
+      <c r="S88" s="12"/>
+      <c r="T88" s="12"/>
+      <c r="U88" s="12"/>
+      <c r="V88" s="12"/>
+      <c r="W88" s="12"/>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
@@ -14323,28 +14301,28 @@
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="7">
-        <v>0.50600000000000001</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="4"/>
       <c r="F89" s="10">
+        <f t="shared" si="4"/>
+        <v>1.3380084151472651</v>
+      </c>
+      <c r="J89" s="10">
         <f t="shared" si="5"/>
-        <v>1.7648221343873518</v>
-      </c>
-      <c r="J89" s="10">
-        <f t="shared" si="4"/>
-        <v>0.17648221343873519</v>
+        <v>0.13380084151472652</v>
       </c>
       <c r="K89" s="10"/>
-      <c r="O89" s="15"/>
-      <c r="P89" s="15"/>
-      <c r="Q89" s="15"/>
-      <c r="R89" s="15"/>
-      <c r="S89" s="15"/>
-      <c r="T89" s="15"/>
-      <c r="U89" s="15"/>
-      <c r="V89" s="15"/>
-      <c r="W89" s="15"/>
+      <c r="O89" s="12"/>
+      <c r="P89" s="12"/>
+      <c r="Q89" s="12"/>
+      <c r="R89" s="12"/>
+      <c r="S89" s="12"/>
+      <c r="T89" s="12"/>
+      <c r="U89" s="12"/>
+      <c r="V89" s="12"/>
+      <c r="W89" s="12"/>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
@@ -14352,28 +14330,28 @@
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="7">
-        <v>0.49399999999999999</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="4"/>
       <c r="F90" s="10">
+        <f t="shared" si="4"/>
+        <v>1.260237780713342</v>
+      </c>
+      <c r="J90" s="10">
         <f t="shared" si="5"/>
-        <v>1.8076923076923077</v>
-      </c>
-      <c r="J90" s="10">
-        <f t="shared" si="4"/>
-        <v>0.16433566433566435</v>
+        <v>0.11456707097394019</v>
       </c>
       <c r="K90" s="10"/>
-      <c r="O90" s="15"/>
-      <c r="P90" s="15"/>
-      <c r="Q90" s="15"/>
-      <c r="R90" s="15"/>
-      <c r="S90" s="15"/>
-      <c r="T90" s="15"/>
-      <c r="U90" s="15"/>
-      <c r="V90" s="15"/>
-      <c r="W90" s="15"/>
+      <c r="O90" s="12"/>
+      <c r="P90" s="12"/>
+      <c r="Q90" s="12"/>
+      <c r="R90" s="12"/>
+      <c r="S90" s="12"/>
+      <c r="T90" s="12"/>
+      <c r="U90" s="12"/>
+      <c r="V90" s="12"/>
+      <c r="W90" s="12"/>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
@@ -14381,17 +14359,17 @@
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="7">
-        <v>0.48899999999999999</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="4"/>
       <c r="F91" s="10">
+        <f t="shared" si="4"/>
+        <v>1.2585751978891819</v>
+      </c>
+      <c r="J91" s="10">
         <f t="shared" si="5"/>
-        <v>1.8261758691206544</v>
-      </c>
-      <c r="J91" s="10">
-        <f t="shared" si="4"/>
-        <v>0.15218132242672119</v>
+        <v>0.10488126649076517</v>
       </c>
       <c r="K91" s="10"/>
     </row>
@@ -14401,17 +14379,17 @@
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="7">
-        <v>0.51500000000000001</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="4"/>
       <c r="F92" s="10">
+        <f t="shared" si="4"/>
+        <v>1.2909336941813261</v>
+      </c>
+      <c r="J92" s="10">
         <f t="shared" si="5"/>
-        <v>1.7339805825242718</v>
-      </c>
-      <c r="J92" s="10">
-        <f t="shared" si="4"/>
-        <v>0.13338312173263628</v>
+        <v>9.9302591860102013E-2</v>
       </c>
       <c r="K92" s="10"/>
     </row>
@@ -14421,17 +14399,17 @@
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="7">
-        <v>0.48699999999999999</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="4"/>
       <c r="F93" s="10">
+        <f t="shared" si="4"/>
+        <v>1.308641975308642</v>
+      </c>
+      <c r="J93" s="10">
         <f t="shared" si="5"/>
-        <v>1.8336755646817249</v>
-      </c>
-      <c r="J93" s="10">
-        <f t="shared" si="4"/>
-        <v>0.13097682604869462</v>
+        <v>9.347442680776015E-2</v>
       </c>
       <c r="K93" s="10"/>
     </row>
@@ -14441,17 +14419,17 @@
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="7">
-        <v>0.48499999999999999</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="4"/>
       <c r="F94" s="10">
+        <f t="shared" si="4"/>
+        <v>1.2619047619047619</v>
+      </c>
+      <c r="J94" s="10">
         <f t="shared" si="5"/>
-        <v>1.841237113402062</v>
-      </c>
-      <c r="J94" s="10">
-        <f t="shared" si="4"/>
-        <v>0.1227491408934708</v>
+        <v>8.412698412698412E-2</v>
       </c>
       <c r="K94" s="10"/>
     </row>
@@ -14461,17 +14439,17 @@
       </c>
       <c r="B95" s="6"/>
       <c r="C95" s="7">
-        <v>0.47799999999999998</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="4"/>
       <c r="F95" s="10">
+        <f t="shared" si="4"/>
+        <v>1.3305439330543933</v>
+      </c>
+      <c r="J95" s="10">
         <f t="shared" si="5"/>
-        <v>1.8682008368200838</v>
-      </c>
-      <c r="J95" s="10">
-        <f t="shared" si="4"/>
-        <v>0.11676255230125523</v>
+        <v>8.3158995815899583E-2</v>
       </c>
       <c r="K95" s="10"/>
     </row>
@@ -14502,18 +14480,18 @@
       <c r="B100" s="1"/>
     </row>
     <row r="115" spans="1:23" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="A115" s="11" t="s">
+      <c r="A115" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="12"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="12"/>
-      <c r="H115" s="12"/>
-      <c r="I115" s="12"/>
-      <c r="J115" s="12"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14"/>
+      <c r="J115" s="14"/>
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
@@ -14539,12 +14517,12 @@
       </c>
       <c r="B117" s="6"/>
       <c r="C117" s="7">
-        <v>0.86699999999999999</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="4"/>
       <c r="F117" s="10">
-        <f>0.867/C117</f>
+        <f>0.972/C117</f>
         <v>1</v>
       </c>
       <c r="J117" s="10">
@@ -14559,17 +14537,17 @@
       </c>
       <c r="B118" s="6"/>
       <c r="C118" s="7">
-        <v>0.65700000000000003</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="4"/>
       <c r="F118" s="10">
-        <f t="shared" ref="F118:F132" si="6">0.867/C118</f>
-        <v>1.3196347031963469</v>
+        <f t="shared" ref="F118:F132" si="6">0.972/C118</f>
+        <v>1.1626794258373205</v>
       </c>
       <c r="J118" s="10">
         <f>F118/A118</f>
-        <v>0.65981735159817345</v>
+        <v>0.58133971291866027</v>
       </c>
       <c r="K118" s="10"/>
     </row>
@@ -14579,17 +14557,17 @@
       </c>
       <c r="B119" s="6"/>
       <c r="C119" s="7">
-        <v>0.58599999999999997</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="4"/>
       <c r="F119" s="10">
         <f t="shared" si="6"/>
-        <v>1.4795221843003414</v>
+        <v>1.2755905511811023</v>
       </c>
       <c r="J119" s="10">
         <f t="shared" ref="J119:J132" si="7">F119/A119</f>
-        <v>0.49317406143344716</v>
+        <v>0.42519685039370075</v>
       </c>
       <c r="K119" s="10"/>
     </row>
@@ -14599,17 +14577,17 @@
       </c>
       <c r="B120" s="6"/>
       <c r="C120" s="7">
-        <v>0.55600000000000005</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="4"/>
       <c r="F120" s="10">
         <f t="shared" si="6"/>
-        <v>1.5593525179856114</v>
+        <v>1.2335025380710658</v>
       </c>
       <c r="J120" s="10">
         <f t="shared" si="7"/>
-        <v>0.38983812949640284</v>
+        <v>0.30837563451776645</v>
       </c>
       <c r="K120" s="10"/>
     </row>
@@ -14619,17 +14597,17 @@
       </c>
       <c r="B121" s="6"/>
       <c r="C121" s="7">
-        <v>0.57899999999999996</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="4"/>
       <c r="F121" s="10">
         <f t="shared" si="6"/>
-        <v>1.4974093264248705</v>
+        <v>1.3388429752066116</v>
       </c>
       <c r="J121" s="10">
         <f t="shared" si="7"/>
-        <v>0.29948186528497411</v>
+        <v>0.26776859504132233</v>
       </c>
       <c r="K121" s="10"/>
     </row>
@@ -14639,29 +14617,29 @@
       </c>
       <c r="B122" s="6"/>
       <c r="C122" s="9">
-        <v>0.56699999999999995</v>
+        <v>0.755</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="4"/>
       <c r="F122" s="10">
         <f t="shared" si="6"/>
-        <v>1.5291005291005293</v>
+        <v>1.2874172185430464</v>
       </c>
       <c r="J122" s="10">
         <f t="shared" si="7"/>
-        <v>0.25485008818342153</v>
+        <v>0.21456953642384105</v>
       </c>
       <c r="K122" s="10"/>
-      <c r="P122" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q122" s="15"/>
-      <c r="R122" s="15"/>
-      <c r="S122" s="15"/>
-      <c r="T122" s="15"/>
-      <c r="U122" s="15"/>
-      <c r="V122" s="15"/>
-      <c r="W122" s="15"/>
+      <c r="P122" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q122" s="12"/>
+      <c r="R122" s="12"/>
+      <c r="S122" s="12"/>
+      <c r="T122" s="12"/>
+      <c r="U122" s="12"/>
+      <c r="V122" s="12"/>
+      <c r="W122" s="12"/>
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
@@ -14669,27 +14647,27 @@
       </c>
       <c r="B123" s="6"/>
       <c r="C123" s="7">
-        <v>0.51200000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="4"/>
       <c r="F123" s="10">
         <f t="shared" si="6"/>
-        <v>1.693359375</v>
+        <v>1.3885714285714286</v>
       </c>
       <c r="J123" s="10">
         <f t="shared" si="7"/>
-        <v>0.24190848214285715</v>
+        <v>0.1983673469387755</v>
       </c>
       <c r="K123" s="10"/>
-      <c r="P123" s="15"/>
-      <c r="Q123" s="15"/>
-      <c r="R123" s="15"/>
-      <c r="S123" s="15"/>
-      <c r="T123" s="15"/>
-      <c r="U123" s="15"/>
-      <c r="V123" s="15"/>
-      <c r="W123" s="15"/>
+      <c r="P123" s="12"/>
+      <c r="Q123" s="12"/>
+      <c r="R123" s="12"/>
+      <c r="S123" s="12"/>
+      <c r="T123" s="12"/>
+      <c r="U123" s="12"/>
+      <c r="V123" s="12"/>
+      <c r="W123" s="12"/>
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
@@ -14697,27 +14675,27 @@
       </c>
       <c r="B124" s="6"/>
       <c r="C124" s="7">
-        <v>0.51800000000000002</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="4"/>
       <c r="F124" s="10">
         <f t="shared" si="6"/>
-        <v>1.6737451737451736</v>
+        <v>1.3806818181818181</v>
       </c>
       <c r="J124" s="10">
         <f t="shared" si="7"/>
-        <v>0.2092181467181467</v>
+        <v>0.17258522727272727</v>
       </c>
       <c r="K124" s="10"/>
-      <c r="P124" s="15"/>
-      <c r="Q124" s="15"/>
-      <c r="R124" s="15"/>
-      <c r="S124" s="15"/>
-      <c r="T124" s="15"/>
-      <c r="U124" s="15"/>
-      <c r="V124" s="15"/>
-      <c r="W124" s="15"/>
+      <c r="P124" s="12"/>
+      <c r="Q124" s="12"/>
+      <c r="R124" s="12"/>
+      <c r="S124" s="12"/>
+      <c r="T124" s="12"/>
+      <c r="U124" s="12"/>
+      <c r="V124" s="12"/>
+      <c r="W124" s="12"/>
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
@@ -14725,27 +14703,27 @@
       </c>
       <c r="B125" s="6"/>
       <c r="C125" s="7">
-        <v>0.496</v>
+        <v>0.73</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="4"/>
       <c r="F125" s="10">
         <f t="shared" si="6"/>
-        <v>1.747983870967742</v>
+        <v>1.3315068493150686</v>
       </c>
       <c r="J125" s="10">
         <f t="shared" si="7"/>
-        <v>0.19422043010752688</v>
+        <v>0.14794520547945206</v>
       </c>
       <c r="K125" s="10"/>
-      <c r="P125" s="15"/>
-      <c r="Q125" s="15"/>
-      <c r="R125" s="15"/>
-      <c r="S125" s="15"/>
-      <c r="T125" s="15"/>
-      <c r="U125" s="15"/>
-      <c r="V125" s="15"/>
-      <c r="W125" s="15"/>
+      <c r="P125" s="12"/>
+      <c r="Q125" s="12"/>
+      <c r="R125" s="12"/>
+      <c r="S125" s="12"/>
+      <c r="T125" s="12"/>
+      <c r="U125" s="12"/>
+      <c r="V125" s="12"/>
+      <c r="W125" s="12"/>
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
@@ -14753,27 +14731,27 @@
       </c>
       <c r="B126" s="6"/>
       <c r="C126" s="7">
-        <v>0.495</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="4"/>
       <c r="F126" s="10">
         <f t="shared" si="6"/>
-        <v>1.7515151515151515</v>
+        <v>1.3099730458221024</v>
       </c>
       <c r="J126" s="10">
         <f t="shared" si="7"/>
-        <v>0.17515151515151514</v>
+        <v>0.13099730458221023</v>
       </c>
       <c r="K126" s="10"/>
-      <c r="P126" s="15"/>
-      <c r="Q126" s="15"/>
-      <c r="R126" s="15"/>
-      <c r="S126" s="15"/>
-      <c r="T126" s="15"/>
-      <c r="U126" s="15"/>
-      <c r="V126" s="15"/>
-      <c r="W126" s="15"/>
+      <c r="P126" s="12"/>
+      <c r="Q126" s="12"/>
+      <c r="R126" s="12"/>
+      <c r="S126" s="12"/>
+      <c r="T126" s="12"/>
+      <c r="U126" s="12"/>
+      <c r="V126" s="12"/>
+      <c r="W126" s="12"/>
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
@@ -14781,27 +14759,27 @@
       </c>
       <c r="B127" s="6"/>
       <c r="C127" s="7">
-        <v>0.501</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="4"/>
       <c r="F127" s="10">
         <f t="shared" si="6"/>
-        <v>1.7305389221556886</v>
+        <v>1.7022767075306482</v>
       </c>
       <c r="J127" s="10">
         <f t="shared" si="7"/>
-        <v>0.15732172019597168</v>
+        <v>0.15475242795733166</v>
       </c>
       <c r="K127" s="10"/>
-      <c r="P127" s="15"/>
-      <c r="Q127" s="15"/>
-      <c r="R127" s="15"/>
-      <c r="S127" s="15"/>
-      <c r="T127" s="15"/>
-      <c r="U127" s="15"/>
-      <c r="V127" s="15"/>
-      <c r="W127" s="15"/>
+      <c r="P127" s="12"/>
+      <c r="Q127" s="12"/>
+      <c r="R127" s="12"/>
+      <c r="S127" s="12"/>
+      <c r="T127" s="12"/>
+      <c r="U127" s="12"/>
+      <c r="V127" s="12"/>
+      <c r="W127" s="12"/>
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
@@ -14809,27 +14787,27 @@
       </c>
       <c r="B128" s="6"/>
       <c r="C128" s="7">
-        <v>0.48699999999999999</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="4"/>
       <c r="F128" s="10">
         <f t="shared" si="6"/>
-        <v>1.7802874743326489</v>
+        <v>1.3242506811989101</v>
       </c>
       <c r="J128" s="10">
         <f t="shared" si="7"/>
-        <v>0.14835728952772073</v>
+        <v>0.11035422343324251</v>
       </c>
       <c r="K128" s="10"/>
-      <c r="P128" s="15"/>
-      <c r="Q128" s="15"/>
-      <c r="R128" s="15"/>
-      <c r="S128" s="15"/>
-      <c r="T128" s="15"/>
-      <c r="U128" s="15"/>
-      <c r="V128" s="15"/>
-      <c r="W128" s="15"/>
+      <c r="P128" s="12"/>
+      <c r="Q128" s="12"/>
+      <c r="R128" s="12"/>
+      <c r="S128" s="12"/>
+      <c r="T128" s="12"/>
+      <c r="U128" s="12"/>
+      <c r="V128" s="12"/>
+      <c r="W128" s="12"/>
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
@@ -14837,27 +14815,27 @@
       </c>
       <c r="B129" s="6"/>
       <c r="C129" s="7">
-        <v>0.47799999999999998</v>
+        <v>0.747</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="4"/>
       <c r="F129" s="10">
         <f t="shared" si="6"/>
-        <v>1.8138075313807531</v>
+        <v>1.3012048192771084</v>
       </c>
       <c r="J129" s="10">
         <f t="shared" si="7"/>
-        <v>0.13952365626005794</v>
+        <v>0.10009267840593142</v>
       </c>
       <c r="K129" s="10"/>
-      <c r="P129" s="15"/>
-      <c r="Q129" s="15"/>
-      <c r="R129" s="15"/>
-      <c r="S129" s="15"/>
-      <c r="T129" s="15"/>
-      <c r="U129" s="15"/>
-      <c r="V129" s="15"/>
-      <c r="W129" s="15"/>
+      <c r="P129" s="12"/>
+      <c r="Q129" s="12"/>
+      <c r="R129" s="12"/>
+      <c r="S129" s="12"/>
+      <c r="T129" s="12"/>
+      <c r="U129" s="12"/>
+      <c r="V129" s="12"/>
+      <c r="W129" s="12"/>
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
@@ -14865,17 +14843,17 @@
       </c>
       <c r="B130" s="6"/>
       <c r="C130" s="7">
-        <v>0.49099999999999999</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="4"/>
       <c r="F130" s="10">
         <f t="shared" si="6"/>
-        <v>1.7657841140529531</v>
+        <v>1.2739187418086499</v>
       </c>
       <c r="J130" s="10">
         <f t="shared" si="7"/>
-        <v>0.12612743671806809</v>
+        <v>9.0994195843474998E-2</v>
       </c>
       <c r="K130" s="10"/>
     </row>
@@ -14885,17 +14863,17 @@
       </c>
       <c r="B131" s="6"/>
       <c r="C131" s="7">
-        <v>0.47899999999999998</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="4"/>
       <c r="F131" s="10">
         <f t="shared" si="6"/>
-        <v>1.8100208768267223</v>
+        <v>1.1516587677725119</v>
       </c>
       <c r="J131" s="10">
         <f t="shared" si="7"/>
-        <v>0.12066805845511482</v>
+        <v>7.6777251184834125E-2</v>
       </c>
       <c r="K131" s="10"/>
     </row>
@@ -14905,17 +14883,17 @@
       </c>
       <c r="B132" s="6"/>
       <c r="C132" s="7">
-        <v>0.51900000000000002</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="4"/>
       <c r="F132" s="10">
         <f t="shared" si="6"/>
-        <v>1.6705202312138727</v>
+        <v>1.2288242730720607</v>
       </c>
       <c r="J132" s="10">
         <f t="shared" si="7"/>
-        <v>0.10440751445086704</v>
+        <v>7.6801517067003791E-2</v>
       </c>
       <c r="K132" s="10"/>
     </row>
